--- a/docs/Decodifiche/36_dec_produzione_documenti.xlsx
+++ b/docs/Decodifiche/36_dec_produzione_documenti.xlsx
@@ -84,7 +84,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,29 +92,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.03125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.22265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
